--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2226965.526409755</v>
+        <v>2224999.64898355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2206069.635128965</v>
+        <v>2206069.635128964</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>93.88791431953679</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
-        <v>109.0498628468563</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50.27086169796294</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>10.26676862145884</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>79.32511041905938</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>142.3983471783645</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>366.926072409012</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>366.926072409012</v>
+        <v>14.84782975053753</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.8159779715828</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>121.2935180732508</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.6538589004794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.1044908246057</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>363.291134271428</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>96.34085483409953</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>76.00435601987203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>81.01651298742907</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>85.04586258645371</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1836675285792</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9253691130818</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.6619032119536</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.4129294959335</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.8280116092607</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.94182778688864</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>108.4249867772598</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C11" t="n">
-        <v>354.875458640434</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2856084901094</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E11" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4786126111379</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G11" t="n">
         <v>401.690860353226</v>
@@ -1388,7 +1388,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15360292176757</v>
+        <v>76.15360292176764</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T11" t="n">
-        <v>198.6271876863863</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U11" t="n">
-        <v>240.6910642547561</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V11" t="n">
         <v>317.3548253395614</v>
       </c>
       <c r="W11" t="n">
-        <v>338.8435355868395</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X11" t="n">
-        <v>359.3336675478955</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y11" t="n">
         <v>375.8405055254801</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.64239183567741</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090626</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.490973258735</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3873581368306</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8429477387572</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V13" t="n">
-        <v>241.7402101932545</v>
+        <v>78.66565627722846</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X13" t="n">
-        <v>215.3122222584636</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C14" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D14" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901096</v>
       </c>
       <c r="E14" t="n">
-        <v>371.5329369416883</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F14" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G14" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H14" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I14" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T14" t="n">
         <v>198.6271876863864</v>
@@ -1664,7 +1664,7 @@
         <v>240.6910642547562</v>
       </c>
       <c r="V14" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W14" t="n">
         <v>338.8435355868396</v>
@@ -1673,7 +1673,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8493879680543</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697638</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T16" t="n">
-        <v>211.3873581368306</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V16" t="n">
-        <v>241.7402101932545</v>
+        <v>149.2369525796445</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X16" t="n">
-        <v>124.0860769907135</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>240.6910642547562</v>
       </c>
       <c r="V17" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395609</v>
       </c>
       <c r="W17" t="n">
         <v>338.8435355868396</v>
@@ -2002,10 +2002,10 @@
         <v>169.4345470513639</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D19" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>188.4909732587352</v>
+        <v>151.8175986176141</v>
       </c>
       <c r="T19" t="n">
-        <v>193.0627141088645</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
         <v>241.7402101932546</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060176</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.3364085329071</v>
+        <v>372.3364085329072</v>
       </c>
       <c r="C20" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D20" t="n">
-        <v>344.2856084901095</v>
+        <v>344.285608490109</v>
       </c>
       <c r="E20" t="n">
-        <v>371.5329369416883</v>
+        <v>371.5329369416884</v>
       </c>
       <c r="F20" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G20" t="n">
-        <v>401.690860353226</v>
+        <v>401.6908603532261</v>
       </c>
       <c r="H20" t="n">
-        <v>296.1574440492782</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I20" t="n">
-        <v>76.15360292176763</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T20" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U20" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V20" t="n">
-        <v>317.3548253395614</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W20" t="n">
         <v>338.8435355868396</v>
@@ -2147,7 +2147,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.8405055254801</v>
+        <v>375.8405055254802</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6.359993135338382</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587351</v>
+        <v>188.4909732587352</v>
       </c>
       <c r="T22" t="n">
-        <v>211.3873581368306</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8429477387573</v>
+        <v>183.3396901251477</v>
       </c>
       <c r="V22" t="n">
-        <v>241.7402101932545</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W22" t="n">
-        <v>276.1255652060175</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X22" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I23" t="n">
-        <v>76.1536029217683</v>
+        <v>76.15360292176763</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T23" t="n">
         <v>198.6271876863864</v>
       </c>
       <c r="U23" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547568</v>
       </c>
       <c r="V23" t="n">
         <v>317.3548253395614</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D25" t="n">
-        <v>11.42541393300188</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0236148923578</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>211.3873581368306</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8429477387573</v>
+        <v>132.4785549429832</v>
       </c>
       <c r="V25" t="n">
         <v>241.7402101932545</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X25" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="26">
@@ -2555,16 +2555,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C26" t="n">
-        <v>354.875458640434</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D26" t="n">
-        <v>344.2856084901094</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E26" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4786126111379</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G26" t="n">
         <v>401.690860353226</v>
@@ -2573,7 +2573,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I26" t="n">
-        <v>76.15360292176757</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T26" t="n">
-        <v>198.6271876863863</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U26" t="n">
-        <v>240.6910642547561</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V26" t="n">
         <v>317.3548253395614</v>
       </c>
       <c r="W26" t="n">
-        <v>338.8435355868395</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X26" t="n">
-        <v>359.3336675478955</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y26" t="n">
         <v>375.8405055254801</v>
@@ -2716,16 +2716,16 @@
         <v>156.8493879680543</v>
       </c>
       <c r="D28" t="n">
-        <v>138.2180398876388</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.0236148923577</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.1516572966161</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7017813311239</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T28" t="n">
         <v>211.3873581368306</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>56.84315421351768</v>
       </c>
       <c r="V28" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y28" t="n">
         <v>208.1872202215213</v>
@@ -2792,16 +2792,16 @@
         <v>372.3364085329071</v>
       </c>
       <c r="C29" t="n">
-        <v>354.8754586404341</v>
+        <v>354.8754586404352</v>
       </c>
       <c r="D29" t="n">
-        <v>344.2856084901095</v>
+        <v>344.2856084901094</v>
       </c>
       <c r="E29" t="n">
         <v>371.5329369416883</v>
       </c>
       <c r="F29" t="n">
-        <v>396.478612611138</v>
+        <v>396.4786126111379</v>
       </c>
       <c r="G29" t="n">
         <v>401.690860353226</v>
@@ -2810,7 +2810,7 @@
         <v>296.1574440492782</v>
       </c>
       <c r="I29" t="n">
-        <v>76.1536029217676</v>
+        <v>76.15360292176757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T29" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863863</v>
       </c>
       <c r="U29" t="n">
-        <v>240.6910642547562</v>
+        <v>240.6910642547561</v>
       </c>
       <c r="V29" t="n">
         <v>317.3548253395614</v>
       </c>
       <c r="W29" t="n">
-        <v>338.8435355868396</v>
+        <v>338.8435355868395</v>
       </c>
       <c r="X29" t="n">
-        <v>359.3336675478956</v>
+        <v>359.3336675478955</v>
       </c>
       <c r="Y29" t="n">
         <v>375.8405055254801</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.82735150171547</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F31" t="n">
-        <v>135.0236148923578</v>
+        <v>36.18171339265425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>211.3873581368306</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8429477387573</v>
+        <v>275.8429477387572</v>
       </c>
       <c r="V31" t="n">
-        <v>241.7402101932545</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.1255652060175</v>
       </c>
       <c r="X31" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>336.2329019998626</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H32" t="n">
-        <v>235.9117334380029</v>
+        <v>306.5548771798517</v>
       </c>
       <c r="I32" t="n">
-        <v>86.55103605234109</v>
+        <v>71.87582657743513</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T32" t="n">
-        <v>194.3494113420555</v>
+        <v>209.0246208169599</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0884973853296</v>
+        <v>180.4453536434808</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3272,10 +3272,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>367.2551605973569</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>336.2329019998626</v>
       </c>
       <c r="G35" t="n">
         <v>341.4451497419507</v>
@@ -3329,10 +3329,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>355.0558912035634</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.5947949142048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.0906979216318</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H38" t="n">
         <v>306.5548771798517</v>
@@ -3554,7 +3554,7 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T38" t="n">
-        <v>194.3494113420555</v>
+        <v>209.0246208169599</v>
       </c>
       <c r="U38" t="n">
         <v>251.0884973853296</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>278.5978249755642</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>299.0879569366202</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>371.5627291811485</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60367735677903</v>
+        <v>96.60367735677904</v>
       </c>
       <c r="D40" t="n">
-        <v>77.97232927636355</v>
+        <v>77.97232927636357</v>
       </c>
       <c r="E40" t="n">
-        <v>75.79081890472037</v>
+        <v>75.79081890472038</v>
       </c>
       <c r="F40" t="n">
-        <v>74.77790428108244</v>
+        <v>74.77790428108246</v>
       </c>
       <c r="G40" t="n">
-        <v>95.90594668534078</v>
+        <v>95.90594668534079</v>
       </c>
       <c r="H40" t="n">
-        <v>78.76432535848846</v>
+        <v>78.76432535848848</v>
       </c>
       <c r="I40" t="n">
-        <v>41.44579859778736</v>
+        <v>41.44579859778738</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.81767805298124</v>
+        <v>41.81767805298125</v>
       </c>
       <c r="S40" t="n">
         <v>128.2452626474598</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>368.058632188576</v>
+        <v>368.0586321885756</v>
       </c>
       <c r="C41" t="n">
-        <v>294.6297480291587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H41" t="n">
         <v>235.9117334380029</v>
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.603677356779</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636352</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472034</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108241</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534075</v>
+        <v>95.90594668534077</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848843</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778733</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T43" t="n">
         <v>151.1416475255553</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>312.0906979216319</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>294.6297480291588</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.0882934837995</v>
+        <v>341.4451497419507</v>
       </c>
       <c r="H44" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I44" t="n">
         <v>86.55103605234109</v>
@@ -4028,13 +4028,13 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T44" t="n">
-        <v>194.3494113420555</v>
+        <v>209.0246208169599</v>
       </c>
       <c r="U44" t="n">
         <v>251.0884973853296</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>313.0770489952299</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1888364400886</v>
+        <v>109.1888364400885</v>
       </c>
       <c r="C46" t="n">
-        <v>96.6036773567773</v>
+        <v>96.60367735677902</v>
       </c>
       <c r="D46" t="n">
-        <v>77.97232927636364</v>
+        <v>77.97232927636354</v>
       </c>
       <c r="E46" t="n">
-        <v>75.79081890472045</v>
+        <v>75.79081890472035</v>
       </c>
       <c r="F46" t="n">
-        <v>74.77790428108253</v>
+        <v>74.77790428108243</v>
       </c>
       <c r="G46" t="n">
-        <v>95.90594668534087</v>
+        <v>95.90594668534082</v>
       </c>
       <c r="H46" t="n">
-        <v>78.76432535848855</v>
+        <v>78.76432535848845</v>
       </c>
       <c r="I46" t="n">
-        <v>41.44579859778744</v>
+        <v>41.44579859778734</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.81767805298132</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S46" t="n">
         <v>128.2452626474598</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1416475255554</v>
+        <v>151.1416475255553</v>
       </c>
       <c r="U46" t="n">
-        <v>215.597237127482</v>
+        <v>215.5972371274819</v>
       </c>
       <c r="V46" t="n">
-        <v>181.4944995819793</v>
+        <v>181.4944995819792</v>
       </c>
       <c r="W46" t="n">
-        <v>215.8798545947423</v>
+        <v>215.8798545947422</v>
       </c>
       <c r="X46" t="n">
-        <v>155.0665116471884</v>
+        <v>155.0665116471883</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.9415096102461</v>
+        <v>147.941509610246</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="C2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="D2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="E2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>132.2438977091746</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>116.9287981866296</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4328,22 +4328,22 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4364,16 +4364,16 @@
         <v>418.1353718951007</v>
       </c>
       <c r="V2" t="n">
-        <v>418.1353718951007</v>
+        <v>139.189398458378</v>
       </c>
       <c r="W2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="X2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.9839952821146</v>
+        <v>139.189398458378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>651.2519730171373</v>
+        <v>185.505439077408</v>
       </c>
       <c r="C3" t="n">
-        <v>476.7989437360102</v>
+        <v>185.505439077408</v>
       </c>
       <c r="D3" t="n">
-        <v>327.864534074759</v>
+        <v>185.505439077408</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>185.505439077408</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>185.505439077408</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
         <v>22.09252109618843</v>
@@ -4407,52 +4407,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888894</v>
+        <v>282.0379868638976</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542212</v>
+        <v>555.4329354292295</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>1094.255581454413</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U3" t="n">
-        <v>1094.255581454413</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="V3" t="n">
-        <v>859.1034732226701</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="W3" t="n">
-        <v>859.1034732226701</v>
+        <v>353.7207760974761</v>
       </c>
       <c r="X3" t="n">
-        <v>651.2519730171373</v>
+        <v>353.7207760974761</v>
       </c>
       <c r="Y3" t="n">
-        <v>651.2519730171373</v>
+        <v>353.7207760974761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618843</v>
@@ -4507,31 +4507,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>117.3019767171696</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.3019767171696</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.5643792874032</v>
+        <v>891.5977648461344</v>
       </c>
       <c r="C5" t="n">
-        <v>777.5643792874032</v>
+        <v>747.7610505245541</v>
       </c>
       <c r="D5" t="n">
-        <v>777.5643792874032</v>
+        <v>389.4953519178036</v>
       </c>
       <c r="E5" t="n">
-        <v>406.9319829146638</v>
+        <v>389.4953519178036</v>
       </c>
       <c r="F5" t="n">
-        <v>399.9864821654604</v>
+        <v>382.5498511686001</v>
       </c>
       <c r="G5" t="n">
-        <v>29.35408579272096</v>
+        <v>367.5520433397743</v>
       </c>
       <c r="H5" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="I5" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="J5" t="n">
-        <v>55.74791993830809</v>
+        <v>55.74791993830854</v>
       </c>
       <c r="K5" t="n">
-        <v>216.0502396745429</v>
+        <v>216.0502396745439</v>
       </c>
       <c r="L5" t="n">
-        <v>467.1960697503073</v>
+        <v>467.1960697503089</v>
       </c>
       <c r="M5" t="n">
-        <v>763.2507418033916</v>
+        <v>763.2507418033939</v>
       </c>
       <c r="N5" t="n">
-        <v>1049.463890420112</v>
+        <v>1049.463890420115</v>
       </c>
       <c r="O5" t="n">
-        <v>1274.539212778867</v>
+        <v>1274.539212778871</v>
       </c>
       <c r="P5" t="n">
-        <v>1428.961410202909</v>
+        <v>1428.961410202913</v>
       </c>
       <c r="Q5" t="n">
-        <v>1467.704289636048</v>
+        <v>1467.704289636052</v>
       </c>
       <c r="R5" t="n">
-        <v>1345.185584511552</v>
+        <v>1467.704289636052</v>
       </c>
       <c r="S5" t="n">
-        <v>1144.525120975714</v>
+        <v>1467.704289636052</v>
       </c>
       <c r="T5" t="n">
-        <v>1144.525120975714</v>
+        <v>1244.366420116248</v>
       </c>
       <c r="U5" t="n">
-        <v>1144.525120975714</v>
+        <v>1244.366420116248</v>
       </c>
       <c r="V5" t="n">
-        <v>1144.525120975714</v>
+        <v>1244.366420116248</v>
       </c>
       <c r="W5" t="n">
-        <v>1144.525120975714</v>
+        <v>891.5977648461344</v>
       </c>
       <c r="X5" t="n">
-        <v>777.5643792874032</v>
+        <v>891.5977648461344</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.5643792874032</v>
+        <v>891.5977648461344</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334.4955821570492</v>
+        <v>178.2884954539723</v>
       </c>
       <c r="C6" t="n">
-        <v>334.4955821570492</v>
+        <v>178.2884954539723</v>
       </c>
       <c r="D6" t="n">
-        <v>334.4955821570492</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="E6" t="n">
-        <v>334.4955821570492</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="F6" t="n">
-        <v>187.9610241839342</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="G6" t="n">
-        <v>111.1889473961847</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="H6" t="n">
-        <v>111.1889473961847</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="I6" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="J6" t="n">
-        <v>29.35408579272096</v>
+        <v>51.38069291096436</v>
       </c>
       <c r="K6" t="n">
-        <v>29.35408579272096</v>
+        <v>215.648515937216</v>
       </c>
       <c r="L6" t="n">
-        <v>311.6368420467977</v>
+        <v>412.380505236586</v>
       </c>
       <c r="M6" t="n">
-        <v>569.7059339365042</v>
+        <v>775.637316921509</v>
       </c>
       <c r="N6" t="n">
-        <v>932.9627456214259</v>
+        <v>1138.894128606432</v>
       </c>
       <c r="O6" t="n">
-        <v>1239.047420678513</v>
+        <v>1138.894128606432</v>
       </c>
       <c r="P6" t="n">
-        <v>1467.704289636048</v>
+        <v>1367.550997563967</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.704289636048</v>
+        <v>1467.704289636052</v>
       </c>
       <c r="R6" t="n">
-        <v>1467.704289636048</v>
+        <v>1381.799377932564</v>
       </c>
       <c r="S6" t="n">
-        <v>1467.704289636048</v>
+        <v>1381.799377932564</v>
       </c>
       <c r="T6" t="n">
-        <v>1467.704289636048</v>
+        <v>1180.603754166322</v>
       </c>
       <c r="U6" t="n">
-        <v>1239.49684608748</v>
+        <v>1180.603754166322</v>
       </c>
       <c r="V6" t="n">
-        <v>1004.344737855738</v>
+        <v>945.4516459345793</v>
       </c>
       <c r="W6" t="n">
-        <v>750.107381127536</v>
+        <v>691.2142892063778</v>
       </c>
       <c r="X6" t="n">
-        <v>542.2558809220031</v>
+        <v>483.3627890008449</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.4955821570492</v>
+        <v>275.602490235891</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.2175531744251</v>
+        <v>198.2902687206279</v>
       </c>
       <c r="C7" t="n">
-        <v>308.2175531744251</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="D7" t="n">
-        <v>308.2175531744251</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="E7" t="n">
-        <v>308.2175531744251</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="F7" t="n">
-        <v>308.2175531744251</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3873479098255</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="H7" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="I7" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="J7" t="n">
-        <v>29.35408579272096</v>
+        <v>29.35408579272104</v>
       </c>
       <c r="K7" t="n">
-        <v>30.77780568486956</v>
+        <v>30.77780568486984</v>
       </c>
       <c r="L7" t="n">
-        <v>88.1261115801789</v>
+        <v>88.12611158017944</v>
       </c>
       <c r="M7" t="n">
-        <v>158.9809824154746</v>
+        <v>158.9809824154754</v>
       </c>
       <c r="N7" t="n">
-        <v>233.5856992125833</v>
+        <v>233.5856992125844</v>
       </c>
       <c r="O7" t="n">
-        <v>286.478934783544</v>
+        <v>286.4789347835453</v>
       </c>
       <c r="P7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="R7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="S7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="T7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="U7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="V7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="W7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="X7" t="n">
-        <v>308.2175531744251</v>
+        <v>308.2175531744266</v>
       </c>
       <c r="Y7" t="n">
-        <v>308.2175531744251</v>
+        <v>198.2902687206279</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.48357412947</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1662.48357412947</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1276.695321531225</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>865.7094167416178</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>447.7456086398047</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>120.5508886758075</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2358.011273715678</v>
       </c>
       <c r="C11" t="n">
-        <v>1999.551214482916</v>
+        <v>1999.551214482917</v>
       </c>
       <c r="D11" t="n">
         <v>1651.787973583816</v>
@@ -5027,22 +5027,22 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F11" t="n">
-        <v>876.018731611264</v>
+        <v>876.0187316112642</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201262</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H11" t="n">
         <v>171.121454437017</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J11" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K11" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677791</v>
       </c>
       <c r="L11" t="n">
         <v>1542.544568462677</v>
@@ -5063,25 +5063,25 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R11" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S11" t="n">
-        <v>4583.291268133684</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T11" t="n">
-        <v>4382.657745218142</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U11" t="n">
-        <v>4139.535458092126</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.975028456205</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W11" t="n">
-        <v>3476.708830893741</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X11" t="n">
-        <v>3113.745530340311</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y11" t="n">
         <v>2734.10865607215</v>
@@ -5115,28 +5115,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J12" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K12" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L12" t="n">
-        <v>887.1579362111883</v>
+        <v>762.3278112241835</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.815619424181</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N12" t="n">
-        <v>1566.626115807875</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O12" t="n">
-        <v>1830.566812309317</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.347565384828</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q12" t="n">
         <v>2625.087782060009</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.5375710224599</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="C13" t="n">
-        <v>379.5375710224599</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D13" t="n">
-        <v>379.5375710224599</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E13" t="n">
-        <v>379.5375710224599</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F13" t="n">
-        <v>354.6462661379373</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G13" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="H13" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9886256529934</v>
+        <v>112.9886256529932</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192176</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M13" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N13" t="n">
         <v>1062.584871907533</v>
@@ -5215,7 +5215,7 @@
         <v>1298.984009272058</v>
       </c>
       <c r="P13" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q13" t="n">
         <v>1523.75344131139</v>
@@ -5224,25 +5224,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.35851882782</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T13" t="n">
-        <v>1119.835934851223</v>
+        <v>1119.835934851222</v>
       </c>
       <c r="U13" t="n">
-        <v>841.2066947110641</v>
+        <v>841.2066947110635</v>
       </c>
       <c r="V13" t="n">
-        <v>597.0246642128272</v>
+        <v>761.7464358451762</v>
       </c>
       <c r="W13" t="n">
-        <v>597.0246642128272</v>
+        <v>482.8317235158655</v>
       </c>
       <c r="X13" t="n">
-        <v>379.5375710224599</v>
+        <v>265.3446303254981</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.5375710224599</v>
+        <v>265.3446303254981</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F14" t="n">
-        <v>876.0187316112642</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201269</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H14" t="n">
         <v>171.121454437017</v>
@@ -5276,7 +5276,7 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J14" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K14" t="n">
         <v>860.27797416778</v>
@@ -5303,10 +5303,10 @@
         <v>4709.931160145415</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133684</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218142</v>
       </c>
       <c r="U14" t="n">
         <v>4139.535458092127</v>
@@ -5370,13 +5370,13 @@
         <v>1490.676116692478</v>
       </c>
       <c r="O15" t="n">
-        <v>1830.566812309317</v>
+        <v>2144.540509277883</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.347565384828</v>
+        <v>2539.764793966091</v>
       </c>
       <c r="Q15" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R15" t="n">
         <v>2625.087782060009</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.5633480061754</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="C16" t="n">
-        <v>611.1296227859183</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D16" t="n">
-        <v>611.1296227859183</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E16" t="n">
-        <v>473.7189869111752</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F16" t="n">
-        <v>337.3314971209148</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3314971209148</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="H16" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I16" t="n">
         <v>94.19862320290829</v>
@@ -5437,13 +5437,13 @@
         <v>112.9886256529933</v>
       </c>
       <c r="K16" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L16" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M16" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N16" t="n">
         <v>1062.584871907533</v>
@@ -5455,31 +5455,31 @@
         <v>1479.229254818016</v>
       </c>
       <c r="Q16" t="n">
-        <v>1523.75344131139</v>
+        <v>1523.753441311389</v>
       </c>
       <c r="R16" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S16" t="n">
-        <v>1523.75344131139</v>
+        <v>1230.264186843721</v>
       </c>
       <c r="T16" t="n">
-        <v>1310.230857334793</v>
+        <v>1230.264186843721</v>
       </c>
       <c r="U16" t="n">
-        <v>1310.230857334793</v>
+        <v>951.634946703562</v>
       </c>
       <c r="V16" t="n">
-        <v>1066.048826836557</v>
+        <v>800.8905501584666</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.048826836557</v>
+        <v>521.9758378291559</v>
       </c>
       <c r="X16" t="n">
-        <v>940.7093551287651</v>
+        <v>304.4887446387885</v>
       </c>
       <c r="Y16" t="n">
-        <v>940.7093551287651</v>
+        <v>94.19862320290829</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112641</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201266</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H17" t="n">
         <v>171.1214544370171</v>
@@ -5513,10 +5513,10 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J17" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K17" t="n">
-        <v>860.2779741677791</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L17" t="n">
         <v>1542.544568462677</v>
@@ -5592,28 +5592,28 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J18" t="n">
-        <v>129.4953301443201</v>
+        <v>254.3254551313248</v>
       </c>
       <c r="K18" t="n">
-        <v>529.7984336513362</v>
+        <v>392.8079739958881</v>
       </c>
       <c r="L18" t="n">
-        <v>762.3278112241835</v>
+        <v>992.4692934191601</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.035495321779</v>
+        <v>1455.232848005443</v>
       </c>
       <c r="N18" t="n">
-        <v>1365.845991705473</v>
+        <v>1768.043344389138</v>
       </c>
       <c r="O18" t="n">
-        <v>1830.566812309317</v>
+        <v>2031.98404089058</v>
       </c>
       <c r="P18" t="n">
-        <v>2338.347565384828</v>
+        <v>2539.764793966091</v>
       </c>
       <c r="Q18" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R18" t="n">
         <v>2625.087782060009</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>233.8128049075941</v>
+        <v>252.6323484231653</v>
       </c>
       <c r="C19" t="n">
-        <v>233.8128049075941</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D19" t="n">
         <v>94.19862320290829</v>
@@ -5671,16 +5671,16 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529928</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K19" t="n">
-        <v>267.081352419217</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639825</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323417</v>
+        <v>790.1587150323421</v>
       </c>
       <c r="N19" t="n">
         <v>1062.584871907532</v>
@@ -5698,25 +5698,25 @@
         <v>1523.753441311389</v>
       </c>
       <c r="S19" t="n">
-        <v>1333.358518827818</v>
+        <v>1370.402331596628</v>
       </c>
       <c r="T19" t="n">
-        <v>1138.345676293612</v>
+        <v>1156.879747620031</v>
       </c>
       <c r="U19" t="n">
-        <v>1138.345676293612</v>
+        <v>878.2505074798722</v>
       </c>
       <c r="V19" t="n">
-        <v>894.1636457953748</v>
+        <v>634.0684769816353</v>
       </c>
       <c r="W19" t="n">
-        <v>615.2489334660642</v>
+        <v>634.0684769816353</v>
       </c>
       <c r="X19" t="n">
-        <v>615.2489334660642</v>
+        <v>634.0684769816353</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.9588120301839</v>
+        <v>423.7783555457551</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2358.011273715678</v>
       </c>
       <c r="C20" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D20" t="n">
         <v>1651.787973583816</v>
@@ -5738,22 +5738,22 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F20" t="n">
-        <v>876.0187316112642</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H20" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I20" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K20" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L20" t="n">
         <v>1542.544568462677</v>
@@ -5768,7 +5768,7 @@
         <v>3777.360983129466</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q20" t="n">
         <v>4658.401460222603</v>
@@ -5841,7 +5841,7 @@
         <v>1177.865620308784</v>
       </c>
       <c r="N21" t="n">
-        <v>1566.626115807875</v>
+        <v>1490.676116692478</v>
       </c>
       <c r="O21" t="n">
         <v>1830.566812309317</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="C22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G22" t="n">
         <v>94.19862320290829</v>
@@ -5911,13 +5911,13 @@
         <v>112.9886256529933</v>
       </c>
       <c r="K22" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192174</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323425</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N22" t="n">
         <v>1062.584871907533</v>
@@ -5932,28 +5932,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R22" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S22" t="n">
-        <v>1333.358518827819</v>
+        <v>1230.264186843722</v>
       </c>
       <c r="T22" t="n">
-        <v>1119.835934851222</v>
+        <v>1230.264186843722</v>
       </c>
       <c r="U22" t="n">
-        <v>841.2066947110635</v>
+        <v>1045.072580656704</v>
       </c>
       <c r="V22" t="n">
-        <v>597.0246642128266</v>
+        <v>800.8905501584666</v>
       </c>
       <c r="W22" t="n">
-        <v>318.1099518835159</v>
+        <v>521.9758378291559</v>
       </c>
       <c r="X22" t="n">
-        <v>100.6228586931485</v>
+        <v>304.4887446387885</v>
       </c>
       <c r="Y22" t="n">
-        <v>100.6228586931485</v>
+        <v>94.19862320290829</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C23" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D23" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E23" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F23" t="n">
-        <v>876.0187316112645</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G23" t="n">
-        <v>470.270387820127</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H23" t="n">
-        <v>171.1214544370177</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I23" t="n">
         <v>94.19862320290829</v>
@@ -6005,7 +6005,7 @@
         <v>3777.360983129466</v>
       </c>
       <c r="P23" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q23" t="n">
         <v>4658.401460222603</v>
@@ -6020,19 +6020,19 @@
         <v>4382.657745218143</v>
       </c>
       <c r="U23" t="n">
-        <v>4139.535458092127</v>
+        <v>4139.535458092126</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456205</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893741</v>
       </c>
       <c r="X23" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340311</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J24" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K24" t="n">
-        <v>654.6285586383409</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L24" t="n">
-        <v>887.1579362111883</v>
+        <v>500.5072265817307</v>
       </c>
       <c r="M24" t="n">
-        <v>1253.815619424181</v>
+        <v>791.2149106793261</v>
       </c>
       <c r="N24" t="n">
-        <v>1566.626115807875</v>
+        <v>1578.574357663139</v>
       </c>
       <c r="O24" t="n">
-        <v>1830.566812309317</v>
+        <v>1842.515054164581</v>
       </c>
       <c r="P24" t="n">
         <v>2338.347565384828</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>379.5375710224591</v>
+        <v>252.6323484231652</v>
       </c>
       <c r="C25" t="n">
-        <v>379.5375710224591</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D25" t="n">
-        <v>367.9967488679118</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E25" t="n">
-        <v>230.5861129931687</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F25" t="n">
         <v>94.19862320290829</v>
@@ -6151,7 +6151,7 @@
         <v>267.0813524192175</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M25" t="n">
         <v>790.1587150323426</v>
@@ -6175,22 +6175,22 @@
         <v>1333.358518827819</v>
       </c>
       <c r="T25" t="n">
-        <v>1119.835934851222</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U25" t="n">
-        <v>841.2066947110634</v>
+        <v>986.0192126865929</v>
       </c>
       <c r="V25" t="n">
-        <v>597.0246642128266</v>
+        <v>741.837182188356</v>
       </c>
       <c r="W25" t="n">
-        <v>597.0246642128266</v>
+        <v>462.9224698590453</v>
       </c>
       <c r="X25" t="n">
-        <v>379.5375710224591</v>
+        <v>462.9224698590453</v>
       </c>
       <c r="Y25" t="n">
-        <v>379.5375710224591</v>
+        <v>252.6323484231652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C26" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D26" t="n">
         <v>1651.787973583816</v>
       </c>
       <c r="E26" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112638</v>
       </c>
       <c r="G26" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201263</v>
       </c>
       <c r="H26" t="n">
         <v>171.121454437017</v>
       </c>
       <c r="I26" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677791</v>
       </c>
       <c r="L26" t="n">
         <v>1542.544568462677</v>
@@ -6248,10 +6248,10 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R26" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S26" t="n">
-        <v>4583.291268133684</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T26" t="n">
         <v>4382.657745218143</v>
@@ -6269,7 +6269,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I27" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J27" t="n">
         <v>254.3254551313248</v>
       </c>
       <c r="K27" t="n">
-        <v>654.6285586383409</v>
+        <v>392.8079739958881</v>
       </c>
       <c r="L27" t="n">
-        <v>887.1579362111883</v>
+        <v>625.3373515687355</v>
       </c>
       <c r="M27" t="n">
-        <v>1177.865620308784</v>
+        <v>916.0450356663309</v>
       </c>
       <c r="N27" t="n">
-        <v>1566.626115807875</v>
+        <v>1703.404482650144</v>
       </c>
       <c r="O27" t="n">
-        <v>1830.566812309317</v>
+        <v>2347.262181844118</v>
       </c>
       <c r="P27" t="n">
-        <v>2338.347565384828</v>
+        <v>2539.764793966091</v>
       </c>
       <c r="Q27" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R27" t="n">
         <v>2625.087782060009</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>686.3629666823699</v>
+        <v>252.6323484231652</v>
       </c>
       <c r="C28" t="n">
-        <v>527.9292414621131</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="D28" t="n">
-        <v>388.3150597574273</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="E28" t="n">
-        <v>388.3150597574273</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F28" t="n">
-        <v>251.927569967167</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G28" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="H28" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I28" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J28" t="n">
         <v>112.9886256529934</v>
@@ -6388,46 +6388,46 @@
         <v>267.0813524192176</v>
       </c>
       <c r="L28" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M28" t="n">
-        <v>790.1587150323427</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N28" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O28" t="n">
-        <v>1298.984009272059</v>
+        <v>1298.984009272058</v>
       </c>
       <c r="P28" t="n">
-        <v>1479.229254818017</v>
+        <v>1479.229254818016</v>
       </c>
       <c r="Q28" t="n">
         <v>1523.75344131139</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S28" t="n">
-        <v>1354.357702593083</v>
+        <v>1230.264186843722</v>
       </c>
       <c r="T28" t="n">
-        <v>1140.835118616487</v>
+        <v>1016.741602867125</v>
       </c>
       <c r="U28" t="n">
-        <v>1140.835118616487</v>
+        <v>959.3242753787233</v>
       </c>
       <c r="V28" t="n">
-        <v>896.65308811825</v>
+        <v>959.3242753787233</v>
       </c>
       <c r="W28" t="n">
-        <v>896.65308811825</v>
+        <v>680.4095630494127</v>
       </c>
       <c r="X28" t="n">
-        <v>896.65308811825</v>
+        <v>462.9224698590453</v>
       </c>
       <c r="Y28" t="n">
-        <v>686.3629666823699</v>
+        <v>252.6323484231652</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2358.011273715679</v>
       </c>
       <c r="C29" t="n">
-        <v>1999.551214482917</v>
+        <v>1999.551214482916</v>
       </c>
       <c r="D29" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583815</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693221</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112647</v>
+        <v>876.0187316112635</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201262</v>
       </c>
       <c r="H29" t="n">
         <v>171.121454437017</v>
@@ -6461,7 +6461,7 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J29" t="n">
-        <v>352.4625266553639</v>
+        <v>352.4625266553644</v>
       </c>
       <c r="K29" t="n">
         <v>860.2779741677796</v>
@@ -6470,16 +6470,16 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M29" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N29" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O29" t="n">
         <v>3777.360983129466</v>
       </c>
       <c r="P29" t="n">
-        <v>4324.639697485002</v>
+        <v>4324.639697485001</v>
       </c>
       <c r="Q29" t="n">
         <v>4658.401460222603</v>
@@ -6494,16 +6494,16 @@
         <v>4382.657745218143</v>
       </c>
       <c r="U29" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V29" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W29" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X29" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y29" t="n">
         <v>2734.108656072151</v>
@@ -6540,28 +6540,28 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J30" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K30" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L30" t="n">
-        <v>887.1579362111883</v>
+        <v>1018.755291748886</v>
       </c>
       <c r="M30" t="n">
-        <v>1177.865620308784</v>
+        <v>1770.510988958981</v>
       </c>
       <c r="N30" t="n">
-        <v>1490.676116692478</v>
+        <v>2083.321485342676</v>
       </c>
       <c r="O30" t="n">
-        <v>1830.566812309317</v>
+        <v>2347.262181844118</v>
       </c>
       <c r="P30" t="n">
-        <v>2338.347565384828</v>
+        <v>2539.764793966091</v>
       </c>
       <c r="Q30" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R30" t="n">
         <v>2625.087782060009</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>230.5861129931687</v>
+        <v>268.1564443227569</v>
       </c>
       <c r="C31" t="n">
-        <v>230.5861129931687</v>
+        <v>268.1564443227569</v>
       </c>
       <c r="D31" t="n">
-        <v>230.5861129931687</v>
+        <v>268.1564443227569</v>
       </c>
       <c r="E31" t="n">
-        <v>230.5861129931687</v>
+        <v>130.7458084480138</v>
       </c>
       <c r="F31" t="n">
         <v>94.19862320290829</v>
@@ -6619,13 +6619,13 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M31" t="n">
         <v>790.1587150323426</v>
@@ -6643,28 +6643,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327293</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.75344131139</v>
+        <v>1420.659109327293</v>
       </c>
       <c r="T31" t="n">
-        <v>1310.230857334793</v>
+        <v>1207.136525350696</v>
       </c>
       <c r="U31" t="n">
-        <v>1031.601617194634</v>
+        <v>928.5072852105372</v>
       </c>
       <c r="V31" t="n">
-        <v>787.4195866963975</v>
+        <v>928.5072852105372</v>
       </c>
       <c r="W31" t="n">
-        <v>508.5048743670868</v>
+        <v>649.5925728812267</v>
       </c>
       <c r="X31" t="n">
-        <v>291.0177811767196</v>
+        <v>649.5925728812267</v>
       </c>
       <c r="Y31" t="n">
-        <v>291.0177811767196</v>
+        <v>439.3024514453466</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2288.815055968523</v>
+        <v>2345.348322904829</v>
       </c>
       <c r="C32" t="n">
-        <v>1919.852539028111</v>
+        <v>1976.385805964417</v>
       </c>
       <c r="D32" t="n">
-        <v>1561.586840421361</v>
+        <v>1618.120107357667</v>
       </c>
       <c r="E32" t="n">
-        <v>1175.798587823117</v>
+        <v>1232.331854759422</v>
       </c>
       <c r="F32" t="n">
-        <v>836.1693938838614</v>
+        <v>821.3459499698149</v>
       </c>
       <c r="G32" t="n">
-        <v>419.918592385074</v>
+        <v>476.4518593213799</v>
       </c>
       <c r="H32" t="n">
-        <v>181.623912144667</v>
+        <v>166.8004682306205</v>
       </c>
       <c r="I32" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J32" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K32" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L32" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M32" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N32" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O32" t="n">
         <v>3777.360983129466</v>
@@ -6722,28 +6722,28 @@
         <v>4658.401460222603</v>
       </c>
       <c r="R32" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145414</v>
       </c>
       <c r="S32" t="n">
-        <v>4572.788810426035</v>
+        <v>4572.788810426034</v>
       </c>
       <c r="T32" t="n">
-        <v>4376.476273716888</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U32" t="n">
-        <v>4122.851528883221</v>
+        <v>4179.384795819527</v>
       </c>
       <c r="V32" t="n">
-        <v>3791.788641539651</v>
+        <v>3848.321908475957</v>
       </c>
       <c r="W32" t="n">
-        <v>3439.019986269537</v>
+        <v>3495.553253205842</v>
       </c>
       <c r="X32" t="n">
-        <v>3065.554228008457</v>
+        <v>3122.087494944763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2675.414896032645</v>
+        <v>2731.948162968951</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I33" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290828</v>
       </c>
       <c r="J33" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K33" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L33" t="n">
-        <v>887.1579362111883</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M33" t="n">
-        <v>1177.865620308784</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N33" t="n">
-        <v>1566.626115807875</v>
+        <v>1732.977933555898</v>
       </c>
       <c r="O33" t="n">
-        <v>1830.566812309317</v>
+        <v>1996.918630057341</v>
       </c>
       <c r="P33" t="n">
-        <v>2338.347565384828</v>
+        <v>2331.788279107601</v>
       </c>
       <c r="Q33" t="n">
-        <v>2625.087782060009</v>
+        <v>2618.528495782782</v>
       </c>
       <c r="R33" t="n">
         <v>2625.087782060009</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762034</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986489</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366655</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046247</v>
       </c>
       <c r="F34" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355097</v>
+        <v>215.6229908355103</v>
       </c>
       <c r="H34" t="n">
         <v>136.0630662309763</v>
@@ -6856,10 +6856,10 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J34" t="n">
-        <v>172.6318791581559</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3678594295426</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L34" t="n">
         <v>695.8445609794708</v>
@@ -6874,13 +6874,13 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q34" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352691</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S34" t="n">
         <v>1829.118721170427</v>
@@ -6889,7 +6889,7 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U34" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V34" t="n">
         <v>1275.347625983542</v>
@@ -6901,7 +6901,7 @@
         <v>900.6543267492686</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560908</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2360.171766818875</v>
+        <v>2273.991612054478</v>
       </c>
       <c r="C35" t="n">
-        <v>1991.209249878464</v>
+        <v>1905.029095114066</v>
       </c>
       <c r="D35" t="n">
-        <v>1632.943551271713</v>
+        <v>1546.763396507316</v>
       </c>
       <c r="E35" t="n">
-        <v>1247.155298673469</v>
+        <v>1175.798587823117</v>
       </c>
       <c r="F35" t="n">
         <v>836.1693938838614</v>
@@ -6932,7 +6932,7 @@
         <v>181.623912144667</v>
       </c>
       <c r="I35" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J35" t="n">
         <v>352.4625266553641</v>
@@ -6941,46 +6941,46 @@
         <v>860.2779741677792</v>
       </c>
       <c r="L35" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M35" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N35" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O35" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P35" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q35" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R35" t="n">
-        <v>4709.931160145414</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S35" t="n">
-        <v>4572.788810426034</v>
+        <v>4572.788810426035</v>
       </c>
       <c r="T35" t="n">
         <v>4361.652829802842</v>
       </c>
       <c r="U35" t="n">
-        <v>4108.028084969175</v>
+        <v>4108.028084969176</v>
       </c>
       <c r="V35" t="n">
         <v>3776.965197625605</v>
       </c>
       <c r="W35" t="n">
-        <v>3424.19654235549</v>
+        <v>3424.196542355491</v>
       </c>
       <c r="X35" t="n">
-        <v>3065.554228008456</v>
+        <v>3050.730784094411</v>
       </c>
       <c r="Y35" t="n">
-        <v>2746.771606882997</v>
+        <v>2660.5914521186</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I36" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J36" t="n">
         <v>254.3254551313248</v>
       </c>
       <c r="K36" t="n">
-        <v>654.6285586383409</v>
+        <v>392.8079739958881</v>
       </c>
       <c r="L36" t="n">
-        <v>887.1579362111883</v>
+        <v>625.3373515687355</v>
       </c>
       <c r="M36" t="n">
-        <v>1253.815619424181</v>
+        <v>916.0450356663309</v>
       </c>
       <c r="N36" t="n">
-        <v>1566.626115807875</v>
+        <v>1228.855532050025</v>
       </c>
       <c r="O36" t="n">
-        <v>1830.566812309317</v>
+        <v>1882.71992463543</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.347565384828</v>
+        <v>2390.500677710941</v>
       </c>
       <c r="Q36" t="n">
         <v>2625.087782060009</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762028</v>
+        <v>640.9267044762029</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986482</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366648</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E37" t="n">
-        <v>388.030921104624</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F37" t="n">
         <v>312.497684457066</v>
@@ -7087,10 +7087,10 @@
         <v>215.6229908355097</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0630662309758</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I37" t="n">
-        <v>94.19862320290828</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J37" t="n">
         <v>172.6318791581559</v>
@@ -7108,10 +7108,10 @@
         <v>1360.801139433346</v>
       </c>
       <c r="O37" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P37" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q37" t="n">
         <v>2000.899469352691</v>
@@ -7123,22 +7123,22 @@
         <v>1829.118721170427</v>
       </c>
       <c r="T37" t="n">
-        <v>1676.450390336532</v>
+        <v>1676.450390336533</v>
       </c>
       <c r="U37" t="n">
         <v>1458.675403339076</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W37" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X37" t="n">
-        <v>900.654326749268</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560902</v>
+        <v>751.2184584560903</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2431.528477669228</v>
+        <v>2360.171766818875</v>
       </c>
       <c r="C38" t="n">
-        <v>2062.565960728816</v>
+        <v>1991.209249878464</v>
       </c>
       <c r="D38" t="n">
-        <v>1704.300262122066</v>
+        <v>1632.943551271713</v>
       </c>
       <c r="E38" t="n">
-        <v>1318.512009523821</v>
+        <v>1247.155298673469</v>
       </c>
       <c r="F38" t="n">
-        <v>907.5261047342137</v>
+        <v>836.1693938838614</v>
       </c>
       <c r="G38" t="n">
         <v>491.2753032354263</v>
@@ -7172,10 +7172,10 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J38" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553644</v>
       </c>
       <c r="K38" t="n">
-        <v>860.2779741677792</v>
+        <v>860.2779741677796</v>
       </c>
       <c r="L38" t="n">
         <v>1542.544568462677</v>
@@ -7187,7 +7187,7 @@
         <v>3091.984352769973</v>
       </c>
       <c r="O38" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P38" t="n">
         <v>4324.639697485001</v>
@@ -7202,19 +7202,19 @@
         <v>4572.788810426035</v>
       </c>
       <c r="T38" t="n">
-        <v>4376.476273716888</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U38" t="n">
-        <v>4122.851528883221</v>
+        <v>4108.028084969176</v>
       </c>
       <c r="V38" t="n">
-        <v>3791.788641539651</v>
+        <v>3776.965197625605</v>
       </c>
       <c r="W38" t="n">
-        <v>3510.376697119889</v>
+        <v>3424.196542355491</v>
       </c>
       <c r="X38" t="n">
-        <v>3136.910938858809</v>
+        <v>3122.087494944763</v>
       </c>
       <c r="Y38" t="n">
         <v>2746.771606882997</v>
@@ -7251,22 +7251,22 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J39" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K39" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L39" t="n">
-        <v>887.1579362111883</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M39" t="n">
-        <v>1177.865620308784</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N39" t="n">
-        <v>1566.626115807875</v>
+        <v>1732.977933555898</v>
       </c>
       <c r="O39" t="n">
-        <v>1830.566812309317</v>
+        <v>2145.844953262855</v>
       </c>
       <c r="P39" t="n">
         <v>2338.347565384828</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762029</v>
+        <v>640.9267044762033</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986483</v>
+        <v>543.3472323986488</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366649</v>
+        <v>464.5873038366653</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046241</v>
+        <v>388.0309211046246</v>
       </c>
       <c r="F40" t="n">
-        <v>312.497684457066</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355097</v>
+        <v>215.6229908355099</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0630662309759</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I40" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6318791581559</v>
+        <v>172.631879158156</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3678594295426</v>
+        <v>386.3678594295427</v>
       </c>
       <c r="L40" t="n">
         <v>695.8445609794708</v>
@@ -7348,7 +7348,7 @@
         <v>1656.843530303034</v>
       </c>
       <c r="P40" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q40" t="n">
         <v>2000.899469352691</v>
@@ -7363,19 +7363,19 @@
         <v>1676.450390336533</v>
       </c>
       <c r="U40" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W40" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492681</v>
+        <v>900.6543267492686</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560903</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2288.815055968523</v>
       </c>
       <c r="C41" t="n">
-        <v>1991.209249878464</v>
+        <v>1919.852539028111</v>
       </c>
       <c r="D41" t="n">
-        <v>1632.943551271713</v>
+        <v>1561.586840421361</v>
       </c>
       <c r="E41" t="n">
-        <v>1247.155298673469</v>
+        <v>1175.798587823117</v>
       </c>
       <c r="F41" t="n">
-        <v>836.1693938838614</v>
+        <v>764.8126830335091</v>
       </c>
       <c r="G41" t="n">
         <v>419.918592385074</v>
@@ -7415,7 +7415,7 @@
         <v>860.2779741677792</v>
       </c>
       <c r="L41" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M41" t="n">
         <v>2318.304158787662</v>
@@ -7491,22 +7491,22 @@
         <v>254.3254551313248</v>
       </c>
       <c r="K42" t="n">
-        <v>654.6285586383409</v>
+        <v>392.8079739958881</v>
       </c>
       <c r="L42" t="n">
-        <v>887.1579362111883</v>
+        <v>625.3373515687355</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.865620308784</v>
+        <v>1377.093048778831</v>
       </c>
       <c r="N42" t="n">
-        <v>1560.066829530648</v>
+        <v>1689.903545162525</v>
       </c>
       <c r="O42" t="n">
-        <v>1824.00752603209</v>
+        <v>2031.98404089058</v>
       </c>
       <c r="P42" t="n">
-        <v>2331.788279107601</v>
+        <v>2539.764793966091</v>
       </c>
       <c r="Q42" t="n">
         <v>2618.528495782782</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.926704476203</v>
+        <v>640.9267044762023</v>
       </c>
       <c r="C43" t="n">
-        <v>543.3472323986484</v>
+        <v>543.3472323986479</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366646</v>
       </c>
       <c r="E43" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046238</v>
       </c>
       <c r="F43" t="n">
-        <v>312.4976844570663</v>
+        <v>312.4976844570658</v>
       </c>
       <c r="G43" t="n">
-        <v>215.62299083551</v>
+        <v>215.6229908355097</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0630662309762</v>
+        <v>136.0630662309759</v>
       </c>
       <c r="I43" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J43" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295426</v>
       </c>
       <c r="L43" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M43" t="n">
         <v>1028.731729052993</v>
       </c>
       <c r="N43" t="n">
-        <v>1360.801139433346</v>
+        <v>1360.801139433345</v>
       </c>
       <c r="O43" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P43" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q43" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R43" t="n">
-        <v>1958.659390511296</v>
+        <v>1958.659390511295</v>
       </c>
       <c r="S43" t="n">
-        <v>1829.118721170427</v>
+        <v>1829.118721170426</v>
       </c>
       <c r="T43" t="n">
-        <v>1676.450390336533</v>
+        <v>1676.450390336532</v>
       </c>
       <c r="U43" t="n">
         <v>1458.675403339076</v>
@@ -7609,10 +7609,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X43" t="n">
-        <v>900.6543267492681</v>
+        <v>900.6543267492675</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2184584560903</v>
+        <v>751.2184584560897</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2360.171766818876</v>
+        <v>2288.815055968523</v>
       </c>
       <c r="C44" t="n">
-        <v>2062.565960728816</v>
+        <v>1919.852539028111</v>
       </c>
       <c r="D44" t="n">
-        <v>1704.300262122066</v>
+        <v>1561.586840421361</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.512009523821</v>
+        <v>1175.798587823117</v>
       </c>
       <c r="F44" t="n">
-        <v>907.5261047342137</v>
+        <v>764.8126830335091</v>
       </c>
       <c r="G44" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H44" t="n">
         <v>181.623912144667</v>
@@ -7646,10 +7646,10 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J44" t="n">
-        <v>352.4625266553644</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K44" t="n">
-        <v>860.2779741677796</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L44" t="n">
         <v>1542.544568462677</v>
@@ -7676,10 +7676,10 @@
         <v>4572.788810426035</v>
       </c>
       <c r="T44" t="n">
-        <v>4376.476273716888</v>
+        <v>4361.652829802842</v>
       </c>
       <c r="U44" t="n">
-        <v>4122.851528883221</v>
+        <v>4108.028084969176</v>
       </c>
       <c r="V44" t="n">
         <v>3791.788641539651</v>
@@ -7725,25 +7725,25 @@
         <v>94.19862320290829</v>
       </c>
       <c r="J45" t="n">
-        <v>254.3254551313248</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K45" t="n">
-        <v>654.6285586383409</v>
+        <v>529.7984336513362</v>
       </c>
       <c r="L45" t="n">
-        <v>887.1579362111883</v>
+        <v>762.3278112241835</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.256333146953</v>
+        <v>1053.035495321779</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.066829530648</v>
+        <v>1365.845991705473</v>
       </c>
       <c r="O45" t="n">
-        <v>1824.00752603209</v>
+        <v>2019.710384290878</v>
       </c>
       <c r="P45" t="n">
-        <v>2331.788279107601</v>
+        <v>2527.491137366389</v>
       </c>
       <c r="Q45" t="n">
         <v>2618.528495782782</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762021</v>
+        <v>640.9267044762032</v>
       </c>
       <c r="C46" t="n">
-        <v>543.3472323986492</v>
+        <v>543.3472323986487</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366657</v>
+        <v>464.5873038366652</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046249</v>
+        <v>388.0309211046245</v>
       </c>
       <c r="F46" t="n">
-        <v>312.4976844570668</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G46" t="n">
-        <v>215.6229908355103</v>
+        <v>215.6229908355101</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0630662309764</v>
+        <v>136.0630662309763</v>
       </c>
       <c r="I46" t="n">
         <v>94.19862320290829</v>
       </c>
       <c r="J46" t="n">
-        <v>172.6318791581558</v>
+        <v>172.6318791581557</v>
       </c>
       <c r="K46" t="n">
         <v>386.3678594295425</v>
       </c>
       <c r="L46" t="n">
-        <v>695.8445609794705</v>
+        <v>695.8445609794707</v>
       </c>
       <c r="M46" t="n">
         <v>1028.731729052992</v>
@@ -7819,37 +7819,37 @@
         <v>1360.801139433345</v>
       </c>
       <c r="O46" t="n">
-        <v>1656.843530303033</v>
+        <v>1656.843530303034</v>
       </c>
       <c r="P46" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352691</v>
       </c>
       <c r="R46" t="n">
         <v>1958.659390511295</v>
       </c>
       <c r="S46" t="n">
-        <v>1829.118721170426</v>
+        <v>1829.118721170427</v>
       </c>
       <c r="T46" t="n">
-        <v>1676.450390336532</v>
+        <v>1676.450390336533</v>
       </c>
       <c r="U46" t="n">
-        <v>1458.675403339075</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.34762598354</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W46" t="n">
-        <v>1057.287166796932</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X46" t="n">
-        <v>900.6543267492671</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560896</v>
+        <v>751.2184584560906</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>239.6115747153265</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>103.8419372411734</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>98.53814304666815</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>284.4254291875934</v>
       </c>
       <c r="M6" t="n">
-        <v>341.1386073038814</v>
+        <v>447.388829319251</v>
       </c>
       <c r="N6" t="n">
-        <v>434.9642522866757</v>
+        <v>434.9642522866762</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>84.68587982512558</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.9123462488943</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>76.71717082363324</v>
+        <v>19.02317462316182</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>38.89612811715145</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>76.71717082363307</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>204.7693662285204</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599054</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>173.7938085744323</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>202.8082061640422</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>76.71717082363307</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>76.71717082363301</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>38.89612811715145</v>
+        <v>38.89612811715143</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>76.71717082363324</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>306.3938374730045</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>76.71717082363307</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>383.754548174275</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>259.017657095659</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>76.71717082363307</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>76.71717082363307</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>143.8050878063508</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>38.89612811715145</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504516</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>76.71717082363324</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>157.3973762953316</v>
       </c>
       <c r="R36" t="n">
         <v>38.89612811715145</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298321</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>76.71717082363307</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>150.4306295005199</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504516</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928335</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>70.09162912946402</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>78.92909012789153</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928335</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>70.0916291294642</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>12.39763292899255</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.4345470513638</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680543</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D13" t="n">
-        <v>138.2180398876388</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E13" t="n">
         <v>136.0365295159957</v>
       </c>
       <c r="F13" t="n">
-        <v>110.3812230566803</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0100359697637</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0633886642565</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.0745539160261</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215213</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D16" t="n">
-        <v>138.2180398876389</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
-        <v>156.1516572966161</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U16" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>92.50325761361005</v>
       </c>
       <c r="W16" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.22614526775016</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E19" t="n">
         <v>136.0365295159958</v>
@@ -23905,10 +23905,10 @@
         <v>156.1516572966162</v>
       </c>
       <c r="H19" t="n">
-        <v>139.0100359697639</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I19" t="n">
-        <v>101.6915092090628</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>36.67337464112107</v>
       </c>
       <c r="T19" t="n">
-        <v>18.3246440279662</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.4345470513638</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C22" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
-        <v>138.2180398876389</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0365295159957</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F22" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G22" t="n">
-        <v>149.7916641612777</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H22" t="n">
-        <v>139.0100359697638</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I22" t="n">
         <v>101.6915092090627</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>92.50325761360968</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>169.4345470513638</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.792625954637</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G25" t="n">
         <v>156.1516572966161</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.3643927957741</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E28" t="n">
         <v>136.0365295159957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H28" t="n">
-        <v>139.0100359697637</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I28" t="n">
-        <v>101.6915092090626</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>20.78919192761117</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.8429477387572</v>
+        <v>218.9997935252396</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1255652060175</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>215.3122222584636</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.6071955496483</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>156.8493879680543</v>
       </c>
       <c r="D31" t="n">
-        <v>138.2180398876389</v>
+        <v>138.2180398876388</v>
       </c>
       <c r="E31" t="n">
-        <v>136.0365295159957</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.84190149970348</v>
       </c>
       <c r="G31" t="n">
         <v>156.1516572966161</v>
       </c>
       <c r="H31" t="n">
-        <v>139.0100359697638</v>
+        <v>139.0100359697637</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6915092090627</v>
+        <v>101.6915092090626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.0633886642565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.4909732587351</v>
+        <v>188.490973258735</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>215.3122222584636</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847638.3692994047</v>
+        <v>847638.3692994046</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>883833.2789254452</v>
+        <v>883833.2789254453</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>883833.2789254453</v>
+        <v>883833.2789254452</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>883833.2789254452</v>
+        <v>883833.2789254453</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049981</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>550599.2991543043</v>
       </c>
       <c r="F2" t="n">
-        <v>550599.2991543047</v>
+        <v>550599.2991543043</v>
       </c>
       <c r="G2" t="n">
-        <v>550599.2991543047</v>
+        <v>550599.2991543044</v>
       </c>
       <c r="H2" t="n">
-        <v>550599.2991543046</v>
+        <v>550599.2991543049</v>
       </c>
       <c r="I2" t="n">
         <v>550599.2991543049</v>
       </c>
       <c r="J2" t="n">
-        <v>550599.2991543043</v>
+        <v>550599.2991543046</v>
       </c>
       <c r="K2" t="n">
-        <v>550599.2991543044</v>
+        <v>550599.2991543047</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="M2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="N2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="N2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="O2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049982</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>100476.7337101048</v>
+        <v>100476.733710106</v>
       </c>
       <c r="D3" t="n">
-        <v>322070.214255531</v>
+        <v>322070.2142555298</v>
       </c>
       <c r="E3" t="n">
         <v>497476.0416545635</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>80572.64137559787</v>
+        <v>80572.64137559786</v>
       </c>
       <c r="K3" t="n">
-        <v>23361.17978521492</v>
+        <v>23361.17978521507</v>
       </c>
       <c r="L3" t="n">
-        <v>125986.9220456742</v>
+        <v>125986.9220456739</v>
       </c>
       <c r="M3" t="n">
-        <v>125398.3356886931</v>
+        <v>125398.3356886933</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.946504458883</v>
+        <v>8317.946504458809</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291749.0011542652</v>
+        <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>262992.3129241371</v>
+        <v>262992.3129241368</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>33014.76728005577</v>
+        <v>33014.7672800557</v>
       </c>
       <c r="F4" t="n">
-        <v>33014.76728005574</v>
+        <v>33014.76728005568</v>
       </c>
       <c r="G4" t="n">
-        <v>33014.76728005565</v>
+        <v>33014.7672800557</v>
       </c>
       <c r="H4" t="n">
-        <v>33014.76728005571</v>
+        <v>33014.7672800557</v>
       </c>
       <c r="I4" t="n">
         <v>33014.76728005568</v>
       </c>
       <c r="J4" t="n">
-        <v>33014.76728005577</v>
+        <v>33014.76728005574</v>
       </c>
       <c r="K4" t="n">
-        <v>33014.76728005573</v>
+        <v>33014.76728005572</v>
       </c>
       <c r="L4" t="n">
-        <v>52838.60844791953</v>
+        <v>52838.60844791961</v>
       </c>
       <c r="M4" t="n">
+        <v>52838.60844791957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52838.60844791957</v>
+      </c>
+      <c r="O4" t="n">
         <v>52838.60844791959</v>
       </c>
-      <c r="N4" t="n">
-        <v>52838.60844791955</v>
-      </c>
-      <c r="O4" t="n">
-        <v>52838.60844791957</v>
-      </c>
       <c r="P4" t="n">
-        <v>52838.60844791951</v>
+        <v>52838.60844791959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58403.55628293911</v>
+        <v>58403.5562829392</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>89896.18181098945</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="F5" t="n">
         <v>89896.18181098947</v>
@@ -26491,16 +26491,16 @@
         <v>89896.18181098947</v>
       </c>
       <c r="J5" t="n">
-        <v>89896.18181098945</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="K5" t="n">
-        <v>89896.18181098947</v>
+        <v>89896.18181098948</v>
       </c>
       <c r="L5" t="n">
+        <v>94960.97845636876</v>
+      </c>
+      <c r="M5" t="n">
         <v>94960.97845636877</v>
-      </c>
-      <c r="M5" t="n">
-        <v>94960.97845636876</v>
       </c>
       <c r="N5" t="n">
         <v>94960.97845636877</v>
@@ -26509,7 +26509,7 @@
         <v>94960.97845636879</v>
       </c>
       <c r="P5" t="n">
-        <v>94960.97845636877</v>
+        <v>94960.97845636879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105505.5167871402</v>
+        <v>105505.5167871397</v>
       </c>
       <c r="C6" t="n">
-        <v>152856.6359878172</v>
+        <v>152856.6359878165</v>
       </c>
       <c r="D6" t="n">
-        <v>4167.078799534152</v>
+        <v>4167.078799534967</v>
       </c>
       <c r="E6" t="n">
-        <v>-69787.69159130441</v>
+        <v>-69873.86994755684</v>
       </c>
       <c r="F6" t="n">
-        <v>427688.3500632595</v>
+        <v>427602.1717070067</v>
       </c>
       <c r="G6" t="n">
-        <v>427688.3500632597</v>
+        <v>427602.1717070068</v>
       </c>
       <c r="H6" t="n">
-        <v>427688.3500632594</v>
+        <v>427602.1717070073</v>
       </c>
       <c r="I6" t="n">
-        <v>427688.3500632598</v>
+        <v>427602.1717070073</v>
       </c>
       <c r="J6" t="n">
-        <v>347115.7086876612</v>
+        <v>347029.530331409</v>
       </c>
       <c r="K6" t="n">
-        <v>404327.1702780443</v>
+        <v>404240.9919217919</v>
       </c>
       <c r="L6" t="n">
-        <v>300942.7299550363</v>
+        <v>300942.7299550362</v>
       </c>
       <c r="M6" t="n">
-        <v>301531.316312017</v>
+        <v>301531.3163120166</v>
       </c>
       <c r="N6" t="n">
         <v>426929.6520007101</v>
       </c>
       <c r="O6" t="n">
-        <v>418611.7054962511</v>
+        <v>418611.705496251</v>
       </c>
       <c r="P6" t="n">
-        <v>426929.6520007104</v>
+        <v>426929.6520007098</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G2" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H2" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I2" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J2" t="n">
+        <v>10.39743313057349</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.39743313057351</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.39743313057348</v>
       </c>
       <c r="L2" t="n">
         <v>70.64314374184879</v>
@@ -26719,13 +26719,13 @@
         <v>70.64314374184879</v>
       </c>
       <c r="N2" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="O2" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P2" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1583064436328</v>
+        <v>113.1583064436337</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26753,7 @@
         <v>799.5929527947245</v>
       </c>
       <c r="H3" t="n">
-        <v>799.5929527947245</v>
+        <v>799.5929527947246</v>
       </c>
       <c r="I3" t="n">
         <v>799.5929527947245</v>
@@ -26790,13 +26790,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>366.926072409012</v>
+        <v>366.926072409013</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1177.482790036353</v>
+        <v>1177.482790036354</v>
       </c>
       <c r="F4" t="n">
         <v>1177.482790036354</v>
@@ -26811,16 +26811,16 @@
         <v>1177.482790036354</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.482790036353</v>
+        <v>1177.482790036354</v>
       </c>
       <c r="K4" t="n">
         <v>1177.482790036354</v>
       </c>
       <c r="L4" t="n">
+        <v>1177.482790036353</v>
+      </c>
+      <c r="M4" t="n">
         <v>1177.482790036354</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1177.482790036353</v>
       </c>
       <c r="N4" t="n">
         <v>1177.482790036354</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057357</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="K2" t="n">
-        <v>1.047190402056237e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127522</v>
+        <v>60.24571061127528</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.3974331305736</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>78.13704572450747</v>
+        <v>78.13704572450843</v>
       </c>
       <c r="D3" t="n">
-        <v>264.5853577734539</v>
+        <v>264.5853577734529</v>
       </c>
       <c r="E3" t="n">
         <v>421.8492885776379</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>90.76955870665654</v>
+        <v>90.76955870665765</v>
       </c>
       <c r="D4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.3612003455426</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817978</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665677</v>
+        <v>90.76955870665765</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.3612003455423</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817976</v>
+        <v>503.1955172817983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057357</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="P2" t="n">
-        <v>1.047190402056237e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>90.76955870665654</v>
+        <v>90.76955870665765</v>
       </c>
       <c r="L4" t="n">
-        <v>307.3612003455436</v>
+        <v>307.3612003455426</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817978</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>244.1450325747641</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
-        <v>240.1911058705567</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>86.99732671577635</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>189.594332350713</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,13 +27555,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>74.22617876297157</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>222.874544592643</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00429766324982</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>47.92175734152556</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.8159779715828</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.9380579757601</v>
+        <v>192.9380579757599</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>121.2935180732506</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.6538589004793</v>
       </c>
       <c r="T5" t="n">
-        <v>221.1044908246057</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3092602866687</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>6.439966407041027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>70.19232881576781</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>61.09576403136549</v>
+        <v>137.1001200512375</v>
       </c>
       <c r="H6" t="n">
         <v>109.8847405498089</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>81.016512987429</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.04586258645384</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>167.1621765020568</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1836675285792</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9253691130818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>52.12502018406585</v>
+        <v>167.7869233960194</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.4129294959334</v>
       </c>
       <c r="I7" t="n">
-        <v>149.3139556204462</v>
+        <v>149.3139556204461</v>
       </c>
       <c r="J7" t="n">
-        <v>78.9324235722116</v>
+        <v>78.93242357221148</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.07513897870584</v>
+        <v>69.0751389787057</v>
       </c>
       <c r="R7" t="n">
-        <v>168.1182932842153</v>
+        <v>168.1182932842152</v>
       </c>
       <c r="S7" t="n">
         <v>220.4604591279158</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>109.7566417428341</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>85.98948845797261</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8129518787938</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="U11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="C13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="D13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="E13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="F13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="G13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="H13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="I13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="J13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="K13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="L13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="N13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="O13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="P13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="R13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="T13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="U13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="V13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="W13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="X13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.39743313057352</v>
+        <v>10.39743313057344</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057397</v>
       </c>
       <c r="W17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.3974331305734</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057392</v>
       </c>
       <c r="E20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="D22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="E22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="F22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="G22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="H22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="I22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="J22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="K22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="L22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="M22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="N22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="O22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="P22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="R22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="T22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="U22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="V22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="W22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="X22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057342</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057279</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057284</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057346</v>
+        <v>10.39743313057345</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057351</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057232</v>
       </c>
       <c r="D29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="W29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="C31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="D31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="E31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="F31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="G31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="H31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="I31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="J31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="K31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="L31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="M31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="N31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="O31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="P31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="R31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="T31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="U31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="V31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="W31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="X31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.39743313057348</v>
+        <v>10.39743313057351</v>
       </c>
     </row>
     <row r="32">
@@ -29758,52 +29758,52 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>70.64314374184879</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.67520947490596</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>70.64314374184879</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>14.67520947490434</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29992,10 +29992,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14.67520947490488</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="G35" t="n">
         <v>70.64314374184879</v>
@@ -30049,10 +30049,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>14.67520947490561</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>70.64314374184879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>14.67520947490434</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30283,13 +30283,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>70.6431437418488</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>14.6752094749051</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="C40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="D40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="E40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="F40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="G40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="H40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="I40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="J40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="K40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="L40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="M40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="N40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="O40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="P40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="R40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="S40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="T40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="U40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="V40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="W40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="X40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.6431437418488</v>
+        <v>70.64314374184879</v>
       </c>
     </row>
     <row r="41">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.67520947490453</v>
+        <v>14.67520947490499</v>
       </c>
       <c r="C41" t="n">
-        <v>70.64314374184883</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H41" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184883</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
     <row r="44">
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.64314374184872</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>70.64314374184872</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30748,13 +30748,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>14.67520947490434</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.67520947490499</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="C46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="D46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="E46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="F46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="G46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="H46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="I46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="J46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="K46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="L46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="M46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="N46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="O46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="P46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="R46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="S46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="T46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="U46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="V46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="W46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="X46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.64314374184872</v>
+        <v>70.64314374184882</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4549077645975183</v>
+        <v>0.4549077645975221</v>
       </c>
       <c r="H5" t="n">
-        <v>4.658824144184336</v>
+        <v>4.658824144184375</v>
       </c>
       <c r="I5" t="n">
-        <v>17.53783159464584</v>
+        <v>17.53783159464599</v>
       </c>
       <c r="J5" t="n">
-        <v>38.60972788550865</v>
+        <v>38.60972788550898</v>
       </c>
       <c r="K5" t="n">
-        <v>57.86597356092162</v>
+        <v>57.86597356092211</v>
       </c>
       <c r="L5" t="n">
-        <v>71.78785706172293</v>
+        <v>71.78785706172354</v>
       </c>
       <c r="M5" t="n">
-        <v>79.87782302038404</v>
+        <v>79.87782302038472</v>
       </c>
       <c r="N5" t="n">
-        <v>81.17032970654675</v>
+        <v>81.17032970654743</v>
       </c>
       <c r="O5" t="n">
-        <v>76.64684062233017</v>
+        <v>76.64684062233081</v>
       </c>
       <c r="P5" t="n">
-        <v>65.41630518382892</v>
+        <v>65.41630518382948</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.12492086418029</v>
+        <v>49.1249208641807</v>
       </c>
       <c r="R5" t="n">
-        <v>28.57559986789888</v>
+        <v>28.57559986789913</v>
       </c>
       <c r="S5" t="n">
-        <v>10.36621068576596</v>
+        <v>10.36621068576605</v>
       </c>
       <c r="T5" t="n">
-        <v>1.991358739525637</v>
+        <v>1.991358739525654</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03639262116780146</v>
+        <v>0.03639262116780177</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2433971119730969</v>
+        <v>0.243397111973099</v>
       </c>
       <c r="H6" t="n">
-        <v>2.350703686687542</v>
+        <v>2.350703686687561</v>
       </c>
       <c r="I6" t="n">
-        <v>8.380119863986012</v>
+        <v>8.380119863986083</v>
       </c>
       <c r="J6" t="n">
-        <v>22.99568942549334</v>
+        <v>22.99568942549353</v>
       </c>
       <c r="K6" t="n">
-        <v>39.30329592769083</v>
+        <v>39.30329592769116</v>
       </c>
       <c r="L6" t="n">
-        <v>52.8481317027551</v>
+        <v>52.84813170275554</v>
       </c>
       <c r="M6" t="n">
-        <v>61.67127701177985</v>
+        <v>61.67127701178037</v>
       </c>
       <c r="N6" t="n">
-        <v>63.30353220566962</v>
+        <v>63.30353220567015</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91036461931836</v>
+        <v>57.91036461931886</v>
       </c>
       <c r="P6" t="n">
-        <v>46.47817307493287</v>
+        <v>46.47817307493326</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.06942783712725</v>
+        <v>31.06942783712751</v>
       </c>
       <c r="R6" t="n">
-        <v>15.1119715661893</v>
+        <v>15.11197156618943</v>
       </c>
       <c r="S6" t="n">
-        <v>4.520994601780986</v>
+        <v>4.520994601781023</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9810611662424384</v>
+        <v>0.9810611662424468</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01601296789296691</v>
+        <v>0.01601296789296704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2040559624393377</v>
+        <v>0.2040559624393395</v>
       </c>
       <c r="H7" t="n">
-        <v>1.814243011506113</v>
+        <v>1.814243011506129</v>
       </c>
       <c r="I7" t="n">
-        <v>6.136519306812087</v>
+        <v>6.136519306812138</v>
       </c>
       <c r="J7" t="n">
-        <v>14.42675654446118</v>
+        <v>14.4267565444613</v>
       </c>
       <c r="K7" t="n">
-        <v>23.70759272704305</v>
+        <v>23.70759272704325</v>
       </c>
       <c r="L7" t="n">
-        <v>30.33755645211755</v>
+        <v>30.3375564521178</v>
       </c>
       <c r="M7" t="n">
-        <v>31.98669963946818</v>
+        <v>31.98669963946845</v>
       </c>
       <c r="N7" t="n">
-        <v>31.22612741583068</v>
+        <v>31.22612741583094</v>
       </c>
       <c r="O7" t="n">
-        <v>28.84238276369841</v>
+        <v>28.84238276369865</v>
       </c>
       <c r="P7" t="n">
-        <v>24.6796411299359</v>
+        <v>24.6796411299361</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.08690427298855</v>
+        <v>17.08690427298869</v>
       </c>
       <c r="R7" t="n">
-        <v>9.175098092954221</v>
+        <v>9.175098092954299</v>
       </c>
       <c r="S7" t="n">
-        <v>3.556138909056457</v>
+        <v>3.556138909056488</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8718754758771702</v>
+        <v>0.8718754758771775</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01113032522396389</v>
+        <v>0.01113032522396398</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32473,37 +32473,37 @@
         <v>272.8219191045679</v>
       </c>
       <c r="K20" t="n">
-        <v>408.8893349510028</v>
+        <v>408.8893349510029</v>
       </c>
       <c r="L20" t="n">
-        <v>507.2633764749889</v>
+        <v>507.263376474989</v>
       </c>
       <c r="M20" t="n">
-        <v>564.4282455172529</v>
+        <v>564.428245517253</v>
       </c>
       <c r="N20" t="n">
-        <v>573.5612846212852</v>
+        <v>573.5612846212853</v>
       </c>
       <c r="O20" t="n">
-        <v>541.597656784692</v>
+        <v>541.5976567846922</v>
       </c>
       <c r="P20" t="n">
         <v>462.241069761095</v>
       </c>
       <c r="Q20" t="n">
-        <v>347.1237928888896</v>
+        <v>347.1237928888897</v>
       </c>
       <c r="R20" t="n">
         <v>201.9193198833834</v>
       </c>
       <c r="S20" t="n">
-        <v>73.24914336405945</v>
+        <v>73.24914336405946</v>
       </c>
       <c r="T20" t="n">
         <v>14.07122874717148</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2571555225068458</v>
+        <v>0.2571555225068459</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.719879181482992</v>
+        <v>1.719879181482993</v>
       </c>
       <c r="H21" t="n">
         <v>16.6104120948489</v>
       </c>
       <c r="I21" t="n">
-        <v>59.2151384852697</v>
+        <v>59.21513848526971</v>
       </c>
       <c r="J21" t="n">
         <v>162.4908660014261</v>
@@ -32558,19 +32558,19 @@
         <v>373.4325389443665</v>
       </c>
       <c r="M21" t="n">
-        <v>435.7781592731248</v>
+        <v>435.7781592731249</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3119104507016</v>
+        <v>447.3119104507017</v>
       </c>
       <c r="O21" t="n">
-        <v>409.2030085873153</v>
+        <v>409.2030085873154</v>
       </c>
       <c r="P21" t="n">
-        <v>328.4214903658181</v>
+        <v>328.4214903658182</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.5410688503553</v>
+        <v>219.5410688503554</v>
       </c>
       <c r="R21" t="n">
         <v>106.7833758468125</v>
@@ -32579,7 +32579,7 @@
         <v>31.94600146307223</v>
       </c>
       <c r="T21" t="n">
-        <v>6.932320034135392</v>
+        <v>6.932320034135393</v>
       </c>
       <c r="U21" t="n">
         <v>0.1131499461501969</v>
@@ -32622,10 +32622,10 @@
         <v>1.441888931269175</v>
       </c>
       <c r="H22" t="n">
-        <v>12.81970340710231</v>
+        <v>12.81970340710232</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36153258762211</v>
+        <v>43.36153258762212</v>
       </c>
       <c r="J22" t="n">
         <v>101.9415474407307</v>
@@ -32634,16 +32634,16 @@
         <v>167.5212776510914</v>
       </c>
       <c r="L22" t="n">
-        <v>214.3695598361463</v>
+        <v>214.3695598361464</v>
       </c>
       <c r="M22" t="n">
         <v>226.0226440170399</v>
       </c>
       <c r="N22" t="n">
-        <v>220.648330727764</v>
+        <v>220.6483307277641</v>
       </c>
       <c r="O22" t="n">
-        <v>203.8044463943013</v>
+        <v>203.8044463943014</v>
       </c>
       <c r="P22" t="n">
         <v>174.38991219641</v>
@@ -32658,10 +32658,10 @@
         <v>25.12819164766371</v>
       </c>
       <c r="T22" t="n">
-        <v>6.160798160877383</v>
+        <v>6.160798160877384</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07864848716013692</v>
+        <v>0.07864848716013693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>117.41311485904</v>
       </c>
       <c r="M3" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>26.66043853089614</v>
+        <v>26.66043853089646</v>
       </c>
       <c r="K5" t="n">
-        <v>161.9215350871058</v>
+        <v>161.9215350871063</v>
       </c>
       <c r="L5" t="n">
-        <v>253.6826566421861</v>
+        <v>253.6826566421867</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0451232859438</v>
+        <v>299.0451232859445</v>
       </c>
       <c r="N5" t="n">
-        <v>289.10419052194</v>
+        <v>289.1041905219407</v>
       </c>
       <c r="O5" t="n">
-        <v>227.3488104633888</v>
+        <v>227.3488104633894</v>
       </c>
       <c r="P5" t="n">
-        <v>155.982017600042</v>
+        <v>155.9820176000426</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.13422164963549</v>
+        <v>39.1342216496359</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.24909809923567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>165.9270939659108</v>
       </c>
       <c r="L6" t="n">
-        <v>285.1340972263401</v>
+        <v>198.7191811104748</v>
       </c>
       <c r="M6" t="n">
-        <v>260.6758503936429</v>
+        <v>366.926072409013</v>
       </c>
       <c r="N6" t="n">
-        <v>366.926072409012</v>
+        <v>366.926072409013</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1764394516035</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>230.9665343005398</v>
+        <v>230.9665343005402</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>101.1649414869551</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.438100901160201</v>
+        <v>1.4381009011604</v>
       </c>
       <c r="L7" t="n">
-        <v>57.92758171243369</v>
+        <v>57.92758171243394</v>
       </c>
       <c r="M7" t="n">
-        <v>71.57057660130877</v>
+        <v>71.57057660130904</v>
       </c>
       <c r="N7" t="n">
-        <v>75.35829979505928</v>
+        <v>75.35829979505954</v>
       </c>
       <c r="O7" t="n">
-        <v>53.42751067773808</v>
+        <v>53.42751067773833</v>
       </c>
       <c r="P7" t="n">
-        <v>21.95820039482938</v>
+        <v>21.95820039482959</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K12" t="n">
         <v>404.3465691990062</v>
@@ -35495,19 +35495,19 @@
         <v>234.8781591644923</v>
       </c>
       <c r="M12" t="n">
-        <v>370.3612961747397</v>
+        <v>312.6672999742683</v>
       </c>
       <c r="N12" t="n">
         <v>315.9701983673683</v>
       </c>
       <c r="O12" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P12" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463142</v>
+        <v>18.97980045463134</v>
       </c>
       <c r="K13" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L13" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M13" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N13" t="n">
         <v>275.1779362375661</v>
       </c>
       <c r="O13" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P13" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.97392575088253</v>
+        <v>44.97392575088246</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>315.9701983673683</v>
       </c>
       <c r="O15" t="n">
-        <v>343.3239349665039</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P15" t="n">
-        <v>512.909851591425</v>
+        <v>399.2164491800083</v>
       </c>
       <c r="Q15" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.625541694169371</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.97980045463139</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K16" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L16" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M16" t="n">
-        <v>276.0039541094539</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N16" t="n">
-        <v>275.1779362375661</v>
+        <v>275.177936237566</v>
       </c>
       <c r="O16" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P16" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>552.8067821773082</v>
       </c>
       <c r="Q17" t="n">
-        <v>337.1330936743448</v>
+        <v>337.1330936743456</v>
       </c>
       <c r="R17" t="n">
         <v>52.05020194223371</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.65323933475938</v>
+        <v>161.7442746751682</v>
       </c>
       <c r="K18" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L18" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M18" t="n">
-        <v>293.6441253511065</v>
+        <v>467.4379339255387</v>
       </c>
       <c r="N18" t="n">
         <v>315.9701983673683</v>
       </c>
       <c r="O18" t="n">
-        <v>469.4149703069131</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P18" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.625541694169371</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.9798004546313</v>
+        <v>18.97980045463132</v>
       </c>
       <c r="K19" t="n">
-        <v>155.6492189557819</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L19" t="n">
         <v>252.3570182270359</v>
@@ -36060,7 +36060,7 @@
         <v>182.0659045918769</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088241</v>
+        <v>44.97392575088243</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L20" t="n">
-        <v>689.1581760554521</v>
+        <v>689.1581760554523</v>
       </c>
       <c r="M20" t="n">
-        <v>783.5955457828127</v>
+        <v>783.5955457828128</v>
       </c>
       <c r="N20" t="n">
-        <v>781.4951454366784</v>
+        <v>781.4951454366785</v>
       </c>
       <c r="O20" t="n">
-        <v>692.2996266257506</v>
+        <v>692.2996266257508</v>
       </c>
       <c r="P20" t="n">
         <v>552.8067821773082</v>
       </c>
       <c r="Q20" t="n">
-        <v>337.1330936743448</v>
+        <v>337.1330936743449</v>
       </c>
       <c r="R20" t="n">
-        <v>52.05020194223371</v>
+        <v>52.05020194223374</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>293.6441253511065</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6873691910014</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O21" t="n">
-        <v>266.6067641428709</v>
+        <v>343.3239349665039</v>
       </c>
       <c r="P21" t="n">
-        <v>512.909851591425</v>
+        <v>512.9098515914251</v>
       </c>
       <c r="Q21" t="n">
-        <v>289.6365825001829</v>
+        <v>289.636582500183</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.97980045463136</v>
+        <v>18.97980045463135</v>
       </c>
       <c r="K22" t="n">
         <v>155.649218955782</v>
@@ -36285,19 +36285,19 @@
         <v>252.3570182270359</v>
       </c>
       <c r="M22" t="n">
-        <v>276.0039541094539</v>
+        <v>276.0039541094538</v>
       </c>
       <c r="N22" t="n">
         <v>275.1779362375661</v>
       </c>
       <c r="O22" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P22" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.97392575088247</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K24" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L24" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M24" t="n">
-        <v>370.3612961747397</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N24" t="n">
-        <v>315.9701983673683</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O24" t="n">
         <v>266.6067641428709</v>
       </c>
       <c r="P24" t="n">
-        <v>512.909851591425</v>
+        <v>500.8409204244923</v>
       </c>
       <c r="Q24" t="n">
         <v>289.6365825001829</v>
@@ -36528,13 +36528,13 @@
         <v>275.1779362375661</v>
       </c>
       <c r="O25" t="n">
-        <v>238.7870074389145</v>
+        <v>238.7870074389144</v>
       </c>
       <c r="P25" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088247</v>
+        <v>44.97392575088246</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K27" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L27" t="n">
         <v>234.8781591644923</v>
@@ -36683,19 +36683,19 @@
         <v>293.6441253511065</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6873691910014</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O27" t="n">
-        <v>266.6067641428709</v>
+        <v>650.3613123171459</v>
       </c>
       <c r="P27" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.625541694169371</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463141</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K28" t="n">
-        <v>155.6492189557821</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L28" t="n">
         <v>252.357018227036</v>
       </c>
       <c r="M28" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N28" t="n">
         <v>275.1779362375661</v>
@@ -36771,7 +36771,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088253</v>
+        <v>44.9739257508825</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K30" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L30" t="n">
-        <v>234.8781591644923</v>
+        <v>493.8958162601513</v>
       </c>
       <c r="M30" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N30" t="n">
         <v>315.9701983673683</v>
       </c>
       <c r="O30" t="n">
-        <v>343.3239349665039</v>
+        <v>266.6067641428709</v>
       </c>
       <c r="P30" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q30" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.625541694169371</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463137</v>
+        <v>18.97980045463142</v>
       </c>
       <c r="K31" t="n">
-        <v>155.649218955782</v>
+        <v>155.6492189557821</v>
       </c>
       <c r="L31" t="n">
         <v>252.357018227036</v>
       </c>
       <c r="M31" t="n">
-        <v>276.0039541094539</v>
+        <v>276.003954109454</v>
       </c>
       <c r="N31" t="n">
         <v>275.1779362375661</v>
@@ -37008,7 +37008,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.97392575088249</v>
+        <v>44.97392575088252</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K33" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L33" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M33" t="n">
         <v>293.6441253511065</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6873691910014</v>
+        <v>315.9701983673683</v>
       </c>
       <c r="O33" t="n">
         <v>266.6067641428709</v>
       </c>
       <c r="P33" t="n">
-        <v>512.909851591425</v>
+        <v>338.2521707578387</v>
       </c>
       <c r="Q33" t="n">
         <v>289.6365825001829</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.625541694169371</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L35" t="n">
-        <v>689.1581760554521</v>
+        <v>689.1581760554533</v>
       </c>
       <c r="M35" t="n">
         <v>783.5955457828127</v>
@@ -37385,25 +37385,25 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K36" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L36" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3612961747397</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N36" t="n">
         <v>315.9701983673683</v>
       </c>
       <c r="O36" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P36" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q36" t="n">
-        <v>289.6365825001829</v>
+        <v>236.9566710596654</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>337.1330936743448</v>
       </c>
       <c r="R38" t="n">
-        <v>52.05020194223449</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K39" t="n">
         <v>404.3465691990062</v>
       </c>
       <c r="L39" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679514</v>
       </c>
       <c r="M39" t="n">
         <v>293.6441253511065</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6873691910014</v>
+        <v>315.9701983673683</v>
       </c>
       <c r="O39" t="n">
-        <v>266.6067641428709</v>
+        <v>417.0373936433908</v>
       </c>
       <c r="P39" t="n">
-        <v>512.909851591425</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q39" t="n">
         <v>289.6365825001829</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.2255110659067</v>
+        <v>79.22551106590669</v>
       </c>
       <c r="K40" t="n">
         <v>215.8949295670573</v>
@@ -37783,10 +37783,10 @@
         <v>512.9448964771871</v>
       </c>
       <c r="L41" t="n">
-        <v>689.1581760554521</v>
+        <v>689.1581760554533</v>
       </c>
       <c r="M41" t="n">
-        <v>783.5955457828137</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N41" t="n">
         <v>781.4951454366784</v>
@@ -37859,25 +37859,25 @@
         <v>161.7442746751682</v>
       </c>
       <c r="K42" t="n">
-        <v>404.3465691990062</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L42" t="n">
         <v>234.8781591644923</v>
       </c>
       <c r="M42" t="n">
-        <v>293.6441253511065</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N42" t="n">
-        <v>386.0618274968323</v>
+        <v>315.9701983673683</v>
       </c>
       <c r="O42" t="n">
-        <v>266.6067641428709</v>
+        <v>345.5358542707624</v>
       </c>
       <c r="P42" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q42" t="n">
-        <v>289.6365825001829</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R42" t="n">
         <v>6.625541694169371</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590673</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K43" t="n">
         <v>215.8949295670574</v>
@@ -37947,7 +37947,7 @@
         <v>336.2496647207292</v>
       </c>
       <c r="N43" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O43" t="n">
         <v>299.0327180501898</v>
@@ -38023,7 +38023,7 @@
         <v>689.1581760554521</v>
       </c>
       <c r="M44" t="n">
-        <v>783.5955457828127</v>
+        <v>783.5955457828137</v>
       </c>
       <c r="N44" t="n">
         <v>781.4951454366784</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7442746751682</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K45" t="n">
         <v>404.3465691990062</v>
@@ -38102,19 +38102,19 @@
         <v>234.8781591644923</v>
       </c>
       <c r="M45" t="n">
-        <v>363.7357544805707</v>
+        <v>293.6441253511065</v>
       </c>
       <c r="N45" t="n">
         <v>315.9701983673683</v>
       </c>
       <c r="O45" t="n">
-        <v>266.6067641428709</v>
+        <v>660.4690834196003</v>
       </c>
       <c r="P45" t="n">
         <v>512.909851591425</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.6365825001829</v>
+        <v>91.95692769332635</v>
       </c>
       <c r="R45" t="n">
         <v>6.625541694169371</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590662</v>
+        <v>79.22551106590672</v>
       </c>
       <c r="K46" t="n">
-        <v>215.8949295670573</v>
+        <v>215.8949295670574</v>
       </c>
       <c r="L46" t="n">
-        <v>312.6027288383112</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M46" t="n">
-        <v>336.2496647207291</v>
+        <v>336.2496647207292</v>
       </c>
       <c r="N46" t="n">
         <v>335.4236468488414</v>
       </c>
       <c r="O46" t="n">
-        <v>299.0327180501897</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P46" t="n">
-        <v>242.3116152031522</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2196363621577</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
